--- a/biology/Zoologie/African_Safari_3D/African_Safari_3D.xlsx
+++ b/biology/Zoologie/African_Safari_3D/African_Safari_3D.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">African Safari 3D est un film belge de Ben Stassen sorti en 2013.
 C'est le cinquième long-métrage en 3D de Ben Stassen après Fly Me To the Moon, Le Voyage extraordinaire de Samy, Sammy 2 et Le Manoir magique.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kevin Richardson et Mara Douglais, experts de la faune et la flore, embarquent pour un périple de plus de 6 000 kilomètres depuis la côte Atlantique de la Namibie jusqu'au sommet du Kilimandjaro (Tanzanie), en passant par le Botswana, le Zimbabwe et la Zambie. Grâce à la technologie 3D et une montgolfière dirigeable, la « Cinébule », pilotée par Dany Cleyet-Marrel, aéronaute français, les paysages les plus retirés d'Afrique peuplés de nombreuses espèces animales menacées d'extinction sont découverts : les éléphants, les rhinocéros, les lions, les guépards…
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : African Safari
 Titre français : African Safari 3D
@@ -599,7 +615,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dany Cleyet-Marrel : lui-même
 Mara Douglais : elle-même
@@ -631,9 +649,11 @@
           <t>Réception critique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a reçu un accueil mitigé de la critique. La plupart des critiques saluent le côté spectaculaire du film lié à la 3D mais descendent la voix off « débilitante » et les « dialogues insipides » des experts[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a reçu un accueil mitigé de la critique. La plupart des critiques saluent le côté spectaculaire du film lié à la 3D mais descendent la voix off « débilitante » et les « dialogues insipides » des experts.
 </t>
         </is>
       </c>
